--- a/subopt-tods16/SuboptimalityInQueries011817.xlsx
+++ b/subopt-tods16/SuboptimalityInQueries011817.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1280" windowWidth="25300" windowHeight="20360" activeTab="1"/>
+    <workbookView xWindow="29640" yWindow="4580" windowWidth="25320" windowHeight="20360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,8 +296,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -307,9 +343,45 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1906,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1917,7 +1989,7 @@
     <col min="1" max="1" width="64.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="1.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" customWidth="1"/>
@@ -2928,9 +3000,427 @@
       </c>
     </row>
     <row r="25" spans="1:16">
+      <c r="A25">
+        <v>0.1</v>
+      </c>
+      <c r="B25">
+        <f>LOG10(A25)</f>
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>5475</v>
+      </c>
+      <c r="D25">
+        <f>C25</f>
+        <v>5475</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" ref="E25:E41" si="15">D25*100/D$23</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N25">
         <f>SUM(N3:N23)</f>
         <v>5475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B45" si="16">LOG10(A26)</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>4093</v>
+      </c>
+      <c r="D26">
+        <f>D25+C26</f>
+        <v>9568</v>
+      </c>
+      <c r="E26" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2761</v>
+      </c>
+      <c r="D27">
+        <f>D26+C27</f>
+        <v>12329</v>
+      </c>
+      <c r="E27" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="16"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="C28">
+        <v>1951</v>
+      </c>
+      <c r="D28">
+        <f>D27+C28</f>
+        <v>14280</v>
+      </c>
+      <c r="E28" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="16"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="C29">
+        <v>1355</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D45" si="17">D28+C29</f>
+        <v>15635</v>
+      </c>
+      <c r="E29" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="16"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="C30">
+        <v>989</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="17"/>
+        <v>16624</v>
+      </c>
+      <c r="E30" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="16"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="C31">
+        <v>758</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="17"/>
+        <v>17382</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="16"/>
+        <v>1.7781512503836436</v>
+      </c>
+      <c r="C32">
+        <v>572</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="17"/>
+        <v>17954</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="16"/>
+        <v>1.8450980400142569</v>
+      </c>
+      <c r="C33">
+        <v>475</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="17"/>
+        <v>18429</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>271</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="17"/>
+        <v>18700</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>250</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="16"/>
+        <v>2.3979400086720375</v>
+      </c>
+      <c r="C35">
+        <v>68</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="17"/>
+        <v>18768</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>500</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="16"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="17"/>
+        <v>18799</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>1000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="17"/>
+        <v>18818</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>2500</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="16"/>
+        <v>3.3979400086720375</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="17"/>
+        <v>18835</v>
+      </c>
+      <c r="E38" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>5000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="16"/>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="17"/>
+        <v>18852</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>10000</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="17"/>
+        <v>18869</v>
+      </c>
+      <c r="E40" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>20000</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="16"/>
+        <v>4.3010299956639813</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="17"/>
+        <v>18883</v>
+      </c>
+      <c r="E41" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>30000</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="16"/>
+        <v>4.4771212547196626</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="17"/>
+        <v>18897</v>
+      </c>
+      <c r="E42" t="e">
+        <f>D42*100/D$23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>40000</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="16"/>
+        <v>4.6020599913279625</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="17"/>
+        <v>18907</v>
+      </c>
+      <c r="E43" t="e">
+        <f t="shared" ref="E43:E45" si="18">D43*100/D$23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>71000</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="16"/>
+        <v>4.8512583487190755</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="17"/>
+        <v>18908</v>
+      </c>
+      <c r="E44" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>72000</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="16"/>
+        <v>4.8573324964312681</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="17"/>
+        <v>18908</v>
+      </c>
+      <c r="E45" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
